--- a/biology/Zoologie/Filippo_De_Filippi/Filippo_De_Filippi.xlsx
+++ b/biology/Zoologie/Filippo_De_Filippi/Filippo_De_Filippi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filippo De Filippi, né le 20 avril 1814 à Milan et mort le 9 février 1867 à Hong Kong, est un zoologiste italien.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filippo De Filippi est né le 20 avril 1814 à Milan dans une famille d'origine piémontaise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filippo De Filippi est né le 20 avril 1814 à Milan dans une famille d'origine piémontaise.
 Il fait des études de médecine à l’université de Pavie et y est assistant de zoologie durant quelque temps. Il est alors appelé au Muséum de Milan, le Museo civico di Milano pour y enseigner la zoologie, la minéralogie et la géologie.
 En 1848, Charles-Albert de Savoie fait appel à lui pour enseigner la zoologie à l’université de Turin où il succède à Gené (1800-1847). Ses recherches portent sur la taxinomie particulièrement sur les oiseaux et les mammifères. Il s’intéresse également aux espèces parasites, ainsi qu’à l'embryologie et à l'anatomie comparée. Il est célèbre pour avoir contribué à l’établissement, en Italie, des premiers centres d’élevage piscicoles.
 D'abord opposé à la théorie darwinienne, il s’oppose à partir de 1864 au créationnisme. À partir de cette date, il devient un militant actif pour les nouvelles idées évolutionnistes et contribuera grandement de faire de Turin l’un des grands centres de recherche scientifique d’Italie.
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(it) Uomo e le scimie, Milano, Daelli, 1864 (lire en ligne)</t>
         </is>
